--- a/src/test/resources/data/AutoData.xlsx
+++ b/src/test/resources/data/AutoData.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22455" windowHeight="4080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22455" windowHeight="4080" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="bareegaree" sheetId="1" r:id="rId1"/>
+    <sheet name="genBaree" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Post Article</t>
   </si>
@@ -49,6 +50,63 @@
   </si>
   <si>
     <t xml:space="preserve">I am execited to read the post at this time </t>
+  </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>Last name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>Thana</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Confirm Password</t>
+  </si>
+  <si>
+    <t>Mobile Number</t>
+  </si>
+  <si>
+    <t>Whatsapp Number</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Malan</t>
+  </si>
+  <si>
+    <t>david09@gmail.com</t>
+  </si>
+  <si>
+    <t>david0987</t>
+  </si>
+  <si>
+    <t>Dhaka</t>
+  </si>
+  <si>
+    <t>Badda</t>
+  </si>
+  <si>
+    <t>David321@#</t>
+  </si>
+  <si>
+    <t>0174586325</t>
+  </si>
+  <si>
+    <t>0196532588</t>
   </si>
 </sst>
 </file>
@@ -99,7 +157,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -120,6 +178,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -438,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,4 +562,100 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" customWidth="1"/>
+    <col min="9" max="9" width="33.85546875" customWidth="1"/>
+    <col min="10" max="10" width="23" customWidth="1"/>
+    <col min="11" max="11" width="24.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="G2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/data/AutoData.xlsx
+++ b/src/test/resources/data/AutoData.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Post Article</t>
   </si>
@@ -107,6 +107,18 @@
   </si>
   <si>
     <t>0196532588</t>
+  </si>
+  <si>
+    <t>ReferenceCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  RC-17282024195</t>
   </si>
 </sst>
 </file>
@@ -566,10 +578,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,13 +593,13 @@
     <col min="5" max="5" width="14.5703125" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="25.140625" customWidth="1"/>
-    <col min="9" max="9" width="33.85546875" customWidth="1"/>
-    <col min="10" max="10" width="23" customWidth="1"/>
-    <col min="11" max="11" width="24.5703125" customWidth="1"/>
+    <col min="8" max="9" width="25.140625" customWidth="1"/>
+    <col min="10" max="10" width="33.85546875" customWidth="1"/>
+    <col min="11" max="11" width="23" customWidth="1"/>
+    <col min="12" max="12" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
@@ -613,13 +625,16 @@
         <v>11</v>
       </c>
       <c r="I1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -644,11 +659,24 @@
       <c r="H2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
